--- a/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_磐石组.xlsx
+++ b/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_磐石组.xlsx
@@ -22,7 +22,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.7 新特性|Fix Bug'!$A$1:$U$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.7 新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>陈一帆</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电煤一期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文、严宏飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷黎娜</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -997,6 +1009,18 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,18 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1419,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1580,7 +1592,7 @@
       <c r="C3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="77" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -1602,7 +1614,7 @@
         <v>42704</v>
       </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="79" t="s">
         <v>84</v>
       </c>
       <c r="M3" s="38"/>
@@ -1634,7 +1646,7 @@
       <c r="C4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="77" t="s">
         <v>80</v>
       </c>
       <c r="E4" s="38" t="s">
@@ -1656,7 +1668,7 @@
         <v>42704</v>
       </c>
       <c r="K4" s="38"/>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="79" t="s">
         <v>84</v>
       </c>
       <c r="M4" s="38"/>
@@ -1688,7 +1700,7 @@
       <c r="C5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="77" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="38" t="s">
@@ -1710,7 +1722,7 @@
         <v>42704</v>
       </c>
       <c r="K5" s="38"/>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="79" t="s">
         <v>85</v>
       </c>
       <c r="M5" s="38"/>
@@ -1742,7 +1754,7 @@
       <c r="C6" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="77" t="s">
         <v>82</v>
       </c>
       <c r="E6" s="38" t="s">
@@ -1764,11 +1776,11 @@
         <v>42711</v>
       </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="88" t="s">
+      <c r="L6" s="79" t="s">
         <v>86</v>
       </c>
       <c r="M6" s="38"/>
-      <c r="N6" s="89" t="s">
+      <c r="N6" s="80" t="s">
         <v>87</v>
       </c>
       <c r="O6" s="47" t="s">
@@ -1796,14 +1808,14 @@
       <c r="C7" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="86" t="s">
-        <v>88</v>
+      <c r="D7" s="77" t="s">
+        <v>91</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>70</v>
@@ -1818,18 +1830,18 @@
         <v>42705</v>
       </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="87" t="s">
-        <v>89</v>
+      <c r="L7" s="78" t="s">
+        <v>92</v>
       </c>
       <c r="M7" s="38"/>
-      <c r="N7" s="89" t="s">
-        <v>90</v>
+      <c r="N7" s="80" t="s">
+        <v>93</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>77</v>
       </c>
       <c r="P7" s="39">
-        <v>42713</v>
+        <v>42716</v>
       </c>
       <c r="Q7" s="47" t="s">
         <v>78</v>
@@ -1841,25 +1853,55 @@
       <c r="V7" s="54"/>
     </row>
     <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="39">
+        <v>42705</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="39">
+        <v>42705</v>
+      </c>
       <c r="K8" s="38"/>
-      <c r="L8" s="47"/>
+      <c r="L8" s="78" t="s">
+        <v>89</v>
+      </c>
       <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
+      <c r="N8" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="39">
+        <v>42713</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
       <c r="T8" s="52"/>
       <c r="U8" s="55"/>
       <c r="V8" s="54"/>
@@ -1868,7 +1910,7 @@
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -1878,12 +1920,12 @@
       <c r="K9" s="38"/>
       <c r="L9" s="47"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="48"/>
+      <c r="N9" s="38"/>
       <c r="O9" s="47"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="47"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
       <c r="T9" s="52"/>
       <c r="U9" s="55"/>
       <c r="V9" s="54"/>
@@ -1902,7 +1944,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="47"/>
       <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="N10" s="48"/>
       <c r="O10" s="47"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="47"/>
@@ -1993,7 +2035,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="39"/>
       <c r="K14" s="38"/>
       <c r="L14" s="47"/>
@@ -2004,7 +2046,7 @@
       <c r="Q14" s="47"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
+      <c r="T14" s="52"/>
       <c r="U14" s="55"/>
       <c r="V14" s="54"/>
     </row>
@@ -2043,20 +2085,20 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="49"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="47"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
-      <c r="O16" s="50"/>
+      <c r="O16" s="47"/>
       <c r="P16" s="39"/>
-      <c r="Q16" s="50"/>
+      <c r="Q16" s="47"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="57"/>
+      <c r="U16" s="55"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2067,19 +2109,20 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="51"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="47"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="47"/>
+      <c r="O17" s="50"/>
       <c r="P17" s="39"/>
-      <c r="Q17" s="47"/>
+      <c r="Q17" s="50"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="45"/>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U17" s="57"/>
+      <c r="V17" s="54"/>
+    </row>
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2094,7 +2137,7 @@
       <c r="L18" s="47"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="44"/>
+      <c r="O18" s="47"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="47"/>
       <c r="R18" s="44"/>
@@ -2102,7 +2145,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2117,7 +2160,7 @@
       <c r="L19" s="47"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="52"/>
+      <c r="O19" s="44"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="47"/>
       <c r="R19" s="44"/>
@@ -2125,30 +2168,30 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="38"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="47"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="52"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="55"/>
-    </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U20" s="45"/>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2171,7 +2214,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="55"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2194,7 +2237,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2212,12 +2255,12 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="59"/>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="55"/>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2235,12 +2278,12 @@
       <c r="O24" s="47"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
       <c r="U24" s="59"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2252,7 +2295,7 @@
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
       <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="38"/>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
@@ -2260,10 +2303,10 @@
       <c r="Q25" s="47"/>
       <c r="R25" s="60"/>
       <c r="S25" s="60"/>
-      <c r="T25" s="61"/>
+      <c r="T25" s="60"/>
       <c r="U25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2283,10 +2326,10 @@
       <c r="Q26" s="47"/>
       <c r="R26" s="60"/>
       <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
+      <c r="T26" s="61"/>
       <c r="U26" s="59"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2298,7 +2341,7 @@
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
       <c r="K27" s="38"/>
-      <c r="L27" s="47"/>
+      <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
@@ -2309,7 +2352,7 @@
       <c r="T27" s="60"/>
       <c r="U27" s="59"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2327,12 +2370,12 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="47"/>
-    </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="59"/>
+    </row>
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2350,12 +2393,12 @@
       <c r="O29" s="47"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="55"/>
-    </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="47"/>
+    </row>
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2378,7 +2421,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2401,7 +2444,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2412,44 +2455,42 @@
       <c r="H32" s="39"/>
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="42"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="47"/>
       <c r="M32" s="38"/>
       <c r="N32" s="47"/>
       <c r="O32" s="47"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="59"/>
-    </row>
-    <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="55"/>
+    </row>
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="38"/>
       <c r="H33" s="39"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
-      <c r="K33" s="38"/>
+      <c r="K33" s="42"/>
       <c r="L33" s="47"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
+      <c r="N33" s="47"/>
       <c r="O33" s="47"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="59"/>
+    </row>
+    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2470,7 +2511,9 @@
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="55"/>
+      <c r="U34" s="53" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
@@ -2683,23 +2726,23 @@
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
-      <c r="D44" s="40"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="I44" s="38"/>
       <c r="J44" s="39"/>
       <c r="K44" s="38"/>
       <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
+      <c r="M44" s="38"/>
       <c r="N44" s="38"/>
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
       <c r="U44" s="55"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
@@ -2729,24 +2772,24 @@
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
-      <c r="D46" s="43"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="39"/>
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="51"/>
+      <c r="K46" s="38"/>
       <c r="L46" s="47"/>
       <c r="M46" s="47"/>
       <c r="N46" s="38"/>
       <c r="O46" s="47"/>
       <c r="P46" s="39"/>
       <c r="Q46" s="47"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="45"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="55"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
@@ -2887,23 +2930,23 @@
       <c r="U52" s="45"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="44"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="46"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="45"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="47"/>
       <c r="R53" s="44"/>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
@@ -3261,7 +3304,7 @@
       <c r="D69" s="45"/>
       <c r="E69" s="44"/>
       <c r="F69" s="38"/>
-      <c r="G69" s="44"/>
+      <c r="G69" s="38"/>
       <c r="H69" s="46"/>
       <c r="I69" s="44"/>
       <c r="J69" s="46"/>
@@ -3392,13 +3435,13 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
       <c r="D75" s="45"/>
       <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
+      <c r="F75" s="38"/>
       <c r="G75" s="44"/>
       <c r="H75" s="46"/>
       <c r="I75" s="44"/>
@@ -4790,6 +4833,9 @@
       <c r="O135" s="44"/>
       <c r="P135" s="46"/>
       <c r="Q135" s="45"/>
+      <c r="R135" s="44"/>
+      <c r="S135" s="44"/>
+      <c r="T135" s="44"/>
       <c r="U135" s="45"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.15">
@@ -5472,13 +5518,33 @@
       <c r="Q169" s="45"/>
       <c r="U169" s="45"/>
     </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A170" s="44"/>
+      <c r="B170" s="44"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="44"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="46"/>
+      <c r="I170" s="44"/>
+      <c r="J170" s="46"/>
+      <c r="K170" s="51"/>
+      <c r="L170" s="44"/>
+      <c r="M170" s="44"/>
+      <c r="N170" s="44"/>
+      <c r="O170" s="44"/>
+      <c r="P170" s="46"/>
+      <c r="Q170" s="45"/>
+      <c r="U170" s="45"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 G1:G1048576 T1:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5673,19 +5739,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5723,8 +5789,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5736,8 +5802,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5749,8 +5815,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5762,8 +5828,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5775,8 +5841,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5788,8 +5854,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5801,8 +5867,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5814,8 +5880,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5876,36 +5942,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6190,36 +6256,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6504,36 +6570,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6820,36 +6886,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_磐石组.xlsx
+++ b/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_磐石组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -350,6 +350,72 @@
   <si>
     <t>谷黎娜</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加风险审核记录</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskRuleTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskRuleTask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskRuleTask"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日凌晨3点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有错，需开发修复</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -777,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,6 +1113,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5573,7 +5648,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5652,24 +5727,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="75"/>
+    <row r="2" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="75" t="s">
+        <v>110</v>
+      </c>
       <c r="R2" s="75"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
